--- a/prototype_python/data/ppp/P2_ResponseSelection.xlsx
+++ b/prototype_python/data/ppp/P2_ResponseSelection.xlsx
@@ -52,10 +52,10 @@
     <t>Task</t>
   </si>
   <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
     <t>LEFT</t>
-  </si>
-  <si>
-    <t>RIGHT</t>
   </si>
   <si>
     <t>ppp</t>
@@ -472,25 +472,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1000.000002</v>
+        <v>1500.000003</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>320.8318000000006</v>
+        <v>264.4662000000011</v>
       </c>
       <c r="G2" s="2">
-        <v>43775.51342048163</v>
+        <v>43775.52738716844</v>
       </c>
       <c r="H2" s="2">
-        <v>43775.51342661108</v>
+        <v>43775.52739266303</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.3903506666666667</v>
+        <v>0.3694516</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -504,25 +504,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1000.000002</v>
+        <v>500.000001</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3">
-        <v>254.3633000000014</v>
+        <v>268.2523000000003</v>
       </c>
       <c r="G3" s="2">
-        <v>43775.51343830011</v>
+        <v>43775.52739866284</v>
       </c>
       <c r="H3" s="2">
-        <v>43775.51344366772</v>
+        <v>43775.527404201</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3">
-        <v>0.3903506666666667</v>
+        <v>0.3694516</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -536,25 +536,25 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>1500.000003</v>
+        <v>1000.000002</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4">
-        <v>242.0246000000006</v>
+        <v>325.7903000000084</v>
       </c>
       <c r="G4" s="2">
-        <v>43775.51346123685</v>
+        <v>43775.52741598342</v>
       </c>
       <c r="H4" s="2">
-        <v>43775.51346647133</v>
+        <v>43775.527422188</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4">
-        <v>0.3903506666666667</v>
+        <v>0.3694516</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -565,28 +565,28 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>500.000001</v>
+        <v>1500.000003</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>304.0229999999937</v>
+        <v>346.6465000000056</v>
       </c>
       <c r="G5" s="2">
-        <v>43775.51347247928</v>
+        <v>43775.52743970032</v>
       </c>
       <c r="H5" s="2">
-        <v>43775.51347843561</v>
+        <v>43775.52744614147</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5">
-        <v>0.3903506666666667</v>
+        <v>0.3694516</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
@@ -600,25 +600,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1500.000003</v>
+        <v>500.000001</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6">
-        <v>279.6357</v>
+        <v>339.8593000000005</v>
       </c>
       <c r="G6" s="2">
-        <v>43775.5134960155</v>
+        <v>43775.52745215538</v>
       </c>
       <c r="H6" s="2">
-        <v>43775.51350167838</v>
+        <v>43775.52745851577</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6">
-        <v>0.3903506666666667</v>
+        <v>0.3694516</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -629,28 +629,28 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>500.000001</v>
+        <v>1000.000002</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>283.1226999999998</v>
+        <v>301.6541000000075</v>
       </c>
       <c r="G7" s="2">
-        <v>43775.51350769957</v>
+        <v>43775.52747032463</v>
       </c>
       <c r="H7" s="2">
-        <v>43775.51351340194</v>
+        <v>43775.5274762436</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7">
-        <v>0.3903506666666667</v>
+        <v>0.3694516</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
